--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 VM.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t>Course</t>
   </si>
@@ -109,6 +109,18 @@
     <t>BIMS-320</t>
   </si>
   <si>
+    <t>MURPHY W</t>
+  </si>
+  <si>
+    <t>53.85%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>12.82%</t>
+  </si>
+  <si>
     <t>COTHRAN E</t>
   </si>
   <si>
@@ -325,9 +337,6 @@
     <t>BURGHARDT R</t>
   </si>
   <si>
-    <t>TEXAS A</t>
-  </si>
-  <si>
     <t>VIBS-633</t>
   </si>
   <si>
@@ -433,15 +442,6 @@
     <t>VIBS-948</t>
   </si>
   <si>
-    <t>VET L</t>
-  </si>
-  <si>
-    <t>TOTAL S</t>
-  </si>
-  <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
     <t>TAYCE J</t>
   </si>
   <si>
@@ -457,9 +457,6 @@
     <t>5.88%</t>
   </si>
   <si>
-    <t>VETERINARY M</t>
-  </si>
-  <si>
     <t>VLCS-422</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
     <t>VLCS-948</t>
   </si>
   <si>
+    <t>WASHBURN K</t>
+  </si>
+  <si>
     <t>ROMANO J</t>
   </si>
   <si>
@@ -532,12 +532,12 @@
     <t>56.25%</t>
   </si>
   <si>
+    <t>HARDY J</t>
+  </si>
+  <si>
     <t>CHAFFIN M</t>
   </si>
   <si>
-    <t>HARDY J</t>
-  </si>
-  <si>
     <t>BISSETT W</t>
   </si>
   <si>
@@ -550,18 +550,21 @@
     <t>4.44%</t>
   </si>
   <si>
+    <t>MARTIN M</t>
+  </si>
+  <si>
     <t>DABAREINER R</t>
   </si>
   <si>
+    <t>ARNOLD C</t>
+  </si>
+  <si>
     <t>VLCS-953</t>
   </si>
   <si>
     <t>EASTERWOOD L</t>
   </si>
   <si>
-    <t>VET P</t>
-  </si>
-  <si>
     <t>VMID-913</t>
   </si>
   <si>
@@ -649,21 +652,15 @@
     <t>VMID-943</t>
   </si>
   <si>
+    <t>POSEY R</t>
+  </si>
+  <si>
     <t>99.23%</t>
   </si>
   <si>
     <t>0.77%</t>
   </si>
   <si>
-    <t>VET I</t>
-  </si>
-  <si>
-    <t>COLLEGE O</t>
-  </si>
-  <si>
-    <t>POSEY R</t>
-  </si>
-  <si>
     <t>VPAR-604</t>
   </si>
   <si>
@@ -694,6 +691,15 @@
     <t>35.00%</t>
   </si>
   <si>
+    <t>BEAVER B</t>
+  </si>
+  <si>
+    <t>89.29%</t>
+  </si>
+  <si>
+    <t>10.71%</t>
+  </si>
+  <si>
     <t>ZORAN D</t>
   </si>
   <si>
@@ -706,6 +712,21 @@
     <t>BARTON C</t>
   </si>
   <si>
+    <t>95.31%</t>
+  </si>
+  <si>
+    <t>4.69%</t>
+  </si>
+  <si>
+    <t>ECKMAN S</t>
+  </si>
+  <si>
+    <t>65.63%</t>
+  </si>
+  <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>ROGERS K</t>
   </si>
   <si>
@@ -715,12 +736,27 @@
     <t>12.00%</t>
   </si>
   <si>
+    <t>MILLER M</t>
+  </si>
+  <si>
+    <t>AUGUST J</t>
+  </si>
+  <si>
+    <t>71.79%</t>
+  </si>
+  <si>
+    <t>28.21%</t>
+  </si>
+  <si>
     <t>AUDREY C</t>
   </si>
   <si>
     <t>WILLARD M</t>
   </si>
   <si>
+    <t>DAVIDSON J</t>
+  </si>
+  <si>
     <t>MANKIN J</t>
   </si>
   <si>
@@ -733,22 +769,28 @@
     <t>3.57%</t>
   </si>
   <si>
-    <t>DAVIDSON J</t>
+    <t>DIESEL A</t>
+  </si>
+  <si>
+    <t>85.37%</t>
+  </si>
+  <si>
+    <t>14.63%</t>
   </si>
   <si>
     <t>VSCS-953</t>
   </si>
   <si>
-    <t>VETERINARY P</t>
-  </si>
-  <si>
-    <t>95.31%</t>
-  </si>
-  <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>ECKMAN S</t>
+    <t>VSCS-955</t>
+  </si>
+  <si>
+    <t>41.98%</t>
+  </si>
+  <si>
+    <t>44.27%</t>
+  </si>
+  <si>
+    <t>12.21%</t>
   </si>
   <si>
     <t>VTMI-615</t>
@@ -772,6 +814,30 @@
     <t>DAI Y</t>
   </si>
   <si>
+    <t>VTMI-643</t>
+  </si>
+  <si>
+    <t>SCANLAN C</t>
+  </si>
+  <si>
+    <t>VTPB-221</t>
+  </si>
+  <si>
+    <t>OMRAN M</t>
+  </si>
+  <si>
+    <t>65.96%</t>
+  </si>
+  <si>
+    <t>26.95%</t>
+  </si>
+  <si>
+    <t>5.67%</t>
+  </si>
+  <si>
+    <t>1.42%</t>
+  </si>
+  <si>
     <t>VTPB-334</t>
   </si>
   <si>
@@ -796,9 +862,6 @@
     <t>VTPB-405</t>
   </si>
   <si>
-    <t>SCANLAN C</t>
-  </si>
-  <si>
     <t>85.87%</t>
   </si>
   <si>
@@ -820,9 +883,6 @@
     <t>VTPB-407</t>
   </si>
   <si>
-    <t>OMRAN M</t>
-  </si>
-  <si>
     <t>VTPB-409</t>
   </si>
   <si>
@@ -892,12 +952,12 @@
     <t>VTPB-487</t>
   </si>
   <si>
+    <t>CRISCIONE C</t>
+  </si>
+  <si>
     <t>50.00%</t>
   </si>
   <si>
-    <t>CRISCIONE C</t>
-  </si>
-  <si>
     <t>VTPB-489</t>
   </si>
   <si>
@@ -961,9 +1021,6 @@
     <t>KIER A</t>
   </si>
   <si>
-    <t>COLLEGE T</t>
-  </si>
-  <si>
     <t>LEVINE G</t>
   </si>
   <si>
@@ -994,6 +1051,9 @@
     <t>VTPP-423</t>
   </si>
   <si>
+    <t>40.00%</t>
+  </si>
+  <si>
     <t>13.70%</t>
   </si>
   <si>
@@ -1009,6 +1069,9 @@
     <t>3.42%</t>
   </si>
   <si>
+    <t>VTPP-427</t>
+  </si>
+  <si>
     <t>VTPP-429</t>
   </si>
   <si>
@@ -1087,9 +1150,6 @@
     <t>VTPP-652</t>
   </si>
   <si>
-    <t>33.33%</t>
-  </si>
-  <si>
     <t>61.90%</t>
   </si>
   <si>
@@ -1160,9 +1220,6 @@
   </si>
   <si>
     <t>VTPP-948</t>
-  </si>
-  <si>
-    <t>VET S</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,7 +1730,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>3.289</v>
+        <v>3.41</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -1685,7 +1742,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1693,22 +1750,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1716,535 +1773,535 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="n">
         <v>3.174</v>
       </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.343</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.634</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.302</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.343</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.634</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.302</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>3.176</v>
       </c>
-      <c r="D43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>80</v>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
+      <c r="A46" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="n">
         <v>3.583</v>
       </c>
-      <c r="D47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>85</v>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="n">
         <v>3.522</v>
       </c>
-      <c r="D50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>89</v>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="n">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>91</v>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="n">
         <v>4</v>
       </c>
-      <c r="D56" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>93</v>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="n">
         <v>3.917</v>
       </c>
-      <c r="D59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>96</v>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="n">
         <v>3.923</v>
       </c>
-      <c r="D62" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>100</v>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="n">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="n">
         <v>4</v>
       </c>
-      <c r="D65" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>101</v>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="B68" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" t="s">
-        <v>13</v>
+      <c r="A68" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
@@ -2261,21 +2318,21 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C72" t="n">
         <v>3.906</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -2289,18 +2346,18 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
         <v>13</v>
@@ -2317,18 +2374,18 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -2345,21 +2402,21 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C81" t="n">
         <v>3.889</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -2373,21 +2430,21 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="B84" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C84" t="n">
         <v>3.688</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E84" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -2401,18 +2458,18 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -2427,189 +2484,189 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="B88" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" t="n">
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D88" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.293</v>
+      </c>
+      <c r="D93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" t="s">
+        <v>126</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="D99" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="D102" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" t="s">
+        <v>140</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" t="n">
         <v>4</v>
       </c>
-      <c r="D91" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3.293</v>
-      </c>
-      <c r="D94" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" t="s">
-        <v>123</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D97" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" t="s">
-        <v>127</v>
-      </c>
-      <c r="F97" t="s">
-        <v>128</v>
-      </c>
-      <c r="G97" t="s">
-        <v>129</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.737</v>
-      </c>
-      <c r="D100" t="s">
-        <v>132</v>
-      </c>
-      <c r="E100" t="s">
-        <v>133</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>131</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="D103" t="s">
-        <v>135</v>
-      </c>
-      <c r="E103" t="s">
-        <v>136</v>
-      </c>
-      <c r="F103" t="s">
-        <v>137</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>138</v>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>3.471</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G106" t="s">
         <v>13</v>
@@ -2618,64 +2675,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="B107" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" t="n">
-        <v>4</v>
-      </c>
-      <c r="D107" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="108" spans="1:8">
-      <c r="B108" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4</v>
-      </c>
-      <c r="D108" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" t="s">
-        <v>13</v>
+      <c r="A108" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>3.761</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
@@ -2687,67 +2703,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>143</v>
-      </c>
-      <c r="C110" t="n">
-        <v>3.471</v>
-      </c>
-      <c r="D110" t="s">
-        <v>144</v>
-      </c>
-      <c r="E110" t="s">
-        <v>145</v>
-      </c>
-      <c r="F110" t="s">
-        <v>146</v>
-      </c>
-      <c r="G110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>103</v>
-      </c>
-      <c r="C111" t="n">
-        <v>4</v>
-      </c>
-      <c r="D111" t="s">
-        <v>37</v>
-      </c>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s">
-        <v>13</v>
+      <c r="A111" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>3.016</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
@@ -2758,27 +2733,27 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C115" t="n">
-        <v>3.761</v>
+        <v>3.222</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -2786,27 +2761,27 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C118" t="n">
-        <v>3.016</v>
+        <v>3.517</v>
       </c>
       <c r="D118" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E118" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F118" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -2814,77 +2789,159 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="B121" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C121" t="n">
-        <v>3.222</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.438</v>
+      </c>
+      <c r="D122" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122" t="s">
+        <v>171</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>163</v>
+      <c r="B123" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C124" t="n">
-        <v>3.517</v>
+        <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="125" spans="1:8">
+      <c r="B125" t="s">
+        <v>174</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>168</v>
+      <c r="B126" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D126" t="s">
+        <v>176</v>
+      </c>
+      <c r="E126" t="s">
+        <v>177</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="B127" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C127" t="n">
-        <v>3.438</v>
+        <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
@@ -2898,13 +2955,13 @@
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -2921,13 +2978,13 @@
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -2942,61 +2999,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
-      <c r="B130" t="s">
-        <v>174</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4</v>
-      </c>
-      <c r="D130" t="s">
-        <v>37</v>
-      </c>
-      <c r="E130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="131" spans="1:8">
-      <c r="B131" t="s">
-        <v>175</v>
-      </c>
-      <c r="C131" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D131" t="s">
-        <v>176</v>
-      </c>
-      <c r="E131" t="s">
-        <v>177</v>
-      </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" t="s">
-        <v>13</v>
+      <c r="A131" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -3013,21 +3029,21 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="D135" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
@@ -3039,329 +3055,247 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
-      <c r="B136" t="s">
-        <v>103</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4</v>
-      </c>
-      <c r="D136" t="s">
-        <v>37</v>
-      </c>
-      <c r="E136" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="137" spans="1:8">
-      <c r="B137" t="s">
-        <v>180</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>37</v>
-      </c>
-      <c r="E137" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" t="s">
-        <v>13</v>
+      <c r="A137" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C138" t="n">
+        <v>2.664</v>
+      </c>
+      <c r="D138" t="s">
+        <v>189</v>
+      </c>
+      <c r="E138" t="s">
+        <v>190</v>
+      </c>
+      <c r="F138" t="s">
+        <v>191</v>
+      </c>
+      <c r="G138" t="s">
+        <v>140</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="B141" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3.561</v>
+      </c>
+      <c r="D141" t="s">
+        <v>194</v>
+      </c>
+      <c r="E141" t="s">
+        <v>195</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="B144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.152</v>
+      </c>
+      <c r="D144" t="s">
+        <v>198</v>
+      </c>
+      <c r="E144" t="s">
+        <v>194</v>
+      </c>
+      <c r="F144" t="s">
+        <v>199</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" t="s">
+        <v>201</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.954</v>
+      </c>
+      <c r="D147" t="s">
+        <v>202</v>
+      </c>
+      <c r="E147" t="s">
+        <v>203</v>
+      </c>
+      <c r="F147" t="s">
+        <v>204</v>
+      </c>
+      <c r="G147" t="s">
+        <v>205</v>
+      </c>
+      <c r="H147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="B150" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="D150" t="s">
+        <v>208</v>
+      </c>
+      <c r="E150" t="s">
+        <v>209</v>
+      </c>
+      <c r="F150" t="s">
+        <v>210</v>
+      </c>
+      <c r="G150" t="s">
+        <v>140</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="B153" t="s">
+        <v>212</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.992</v>
+      </c>
+      <c r="D153" t="s">
+        <v>213</v>
+      </c>
+      <c r="E153" t="s">
+        <v>214</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="B156" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D156" t="s">
+        <v>217</v>
+      </c>
+      <c r="E156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" t="n">
         <v>4</v>
       </c>
-      <c r="D138" t="s">
-        <v>37</v>
-      </c>
-      <c r="E138" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="B139" t="s">
-        <v>147</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4</v>
-      </c>
-      <c r="D139" t="s">
-        <v>37</v>
-      </c>
-      <c r="E139" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="B142" t="s">
-        <v>183</v>
-      </c>
-      <c r="C142" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="D142" t="s">
-        <v>184</v>
-      </c>
-      <c r="E142" t="s">
-        <v>185</v>
-      </c>
-      <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>187</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2.664</v>
-      </c>
-      <c r="D145" t="s">
-        <v>188</v>
-      </c>
-      <c r="E145" t="s">
-        <v>189</v>
-      </c>
-      <c r="F145" t="s">
-        <v>190</v>
-      </c>
-      <c r="G145" t="s">
-        <v>137</v>
-      </c>
-      <c r="H145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="B148" t="s">
-        <v>192</v>
-      </c>
-      <c r="C148" t="n">
-        <v>3.561</v>
-      </c>
-      <c r="D148" t="s">
-        <v>193</v>
-      </c>
-      <c r="E148" t="s">
-        <v>194</v>
-      </c>
-      <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="B151" t="s">
-        <v>196</v>
-      </c>
-      <c r="C151" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="D151" t="s">
-        <v>197</v>
-      </c>
-      <c r="E151" t="s">
-        <v>193</v>
-      </c>
-      <c r="F151" t="s">
-        <v>198</v>
-      </c>
-      <c r="G151" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>200</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2.954</v>
-      </c>
-      <c r="D154" t="s">
-        <v>201</v>
-      </c>
-      <c r="E154" t="s">
-        <v>202</v>
-      </c>
-      <c r="F154" t="s">
-        <v>203</v>
-      </c>
-      <c r="G154" t="s">
-        <v>204</v>
-      </c>
-      <c r="H154" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="B157" t="s">
-        <v>206</v>
-      </c>
-      <c r="C157" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D157" t="s">
-        <v>207</v>
-      </c>
-      <c r="E157" t="s">
-        <v>208</v>
-      </c>
-      <c r="F157" t="s">
-        <v>209</v>
-      </c>
-      <c r="G157" t="s">
-        <v>137</v>
-      </c>
-      <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>103</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3.992</v>
-      </c>
-      <c r="D160" t="s">
-        <v>211</v>
-      </c>
-      <c r="E160" t="s">
-        <v>212</v>
-      </c>
-      <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s">
-        <v>13</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>213</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3.992</v>
-      </c>
-      <c r="D161" t="s">
-        <v>211</v>
-      </c>
-      <c r="E161" t="s">
-        <v>212</v>
-      </c>
-      <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" t="s">
-        <v>13</v>
+      <c r="A161" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="B162" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="C162" t="n">
-        <v>3.992</v>
+        <v>3.65</v>
       </c>
       <c r="D162" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E162" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
@@ -3375,16 +3309,16 @@
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C163" t="n">
-        <v>3.992</v>
+        <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="E163" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
@@ -3398,16 +3332,16 @@
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C164" t="n">
-        <v>3.992</v>
+        <v>3.9272</v>
       </c>
       <c r="D164" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E164" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
@@ -3421,16 +3355,16 @@
     </row>
     <row r="165" spans="1:8">
       <c r="B165" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C165" t="n">
-        <v>3.992</v>
+        <v>3.46</v>
       </c>
       <c r="D165" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E165" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
@@ -3442,23 +3376,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="166" spans="1:8">
+      <c r="B166" t="s">
+        <v>231</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3.9675</v>
+      </c>
+      <c r="D166" t="s">
+        <v>232</v>
+      </c>
+      <c r="E166" t="s">
+        <v>233</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>216</v>
+      <c r="B167" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="D167" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" t="s">
+        <v>235</v>
+      </c>
+      <c r="F167" t="s">
+        <v>236</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="B168" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C168" t="n">
-        <v>3.818</v>
+        <v>3.873</v>
       </c>
       <c r="D168" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="E168" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
@@ -3470,20 +3445,61 @@
         <v>13</v>
       </c>
     </row>
+    <row r="169" spans="1:8">
+      <c r="B169" t="s">
+        <v>240</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>41</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>220</v>
+      <c r="B170" t="s">
+        <v>241</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="D170" t="s">
+        <v>242</v>
+      </c>
+      <c r="E170" t="s">
+        <v>243</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="B171" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -3498,23 +3514,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
+        <v>245</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>222</v>
+      <c r="B173" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>41</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="B174" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C174" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="E174" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
@@ -3528,16 +3585,16 @@
     </row>
     <row r="175" spans="1:8">
       <c r="B175" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>3.9665</v>
       </c>
       <c r="D175" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="E175" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
@@ -3551,16 +3608,16 @@
     </row>
     <row r="176" spans="1:8">
       <c r="B176" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C176" t="n">
-        <v>3.46</v>
+        <v>3.854</v>
       </c>
       <c r="D176" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="E176" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
@@ -3572,65 +3629,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="B177" t="s">
-        <v>229</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4</v>
-      </c>
-      <c r="D177" t="s">
-        <v>37</v>
-      </c>
-      <c r="E177" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>230</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="D178" t="s">
-        <v>231</v>
-      </c>
-      <c r="E178" t="s">
-        <v>232</v>
-      </c>
-      <c r="F178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" t="s">
-        <v>13</v>
-      </c>
-      <c r="H178" t="s">
-        <v>13</v>
+      <c r="A178" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="B179" t="s">
+        <v>234</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D179" t="s">
+        <v>232</v>
+      </c>
+      <c r="E179" t="s">
         <v>233</v>
       </c>
-      <c r="C179" t="n">
-        <v>4</v>
-      </c>
-      <c r="D179" t="s">
-        <v>37</v>
-      </c>
-      <c r="E179" t="s">
-        <v>13</v>
-      </c>
       <c r="F179" t="s">
         <v>13</v>
       </c>
@@ -3641,161 +3657,79 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
-      <c r="B180" t="s">
-        <v>234</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4</v>
-      </c>
-      <c r="D180" t="s">
-        <v>37</v>
-      </c>
-      <c r="E180" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>235</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4</v>
-      </c>
-      <c r="D181" t="s">
-        <v>37</v>
-      </c>
-      <c r="E181" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s">
-        <v>13</v>
+      <c r="A181" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="B182" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C182" t="n">
-        <v>3.9665</v>
+        <v>3.267</v>
       </c>
       <c r="D182" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E182" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
-      <c r="B183" t="s">
-        <v>239</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4</v>
-      </c>
-      <c r="D183" t="s">
-        <v>37</v>
-      </c>
-      <c r="E183" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
-        <v>13</v>
-      </c>
-      <c r="G183" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" t="s">
-        <v>13</v>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="B186" t="s">
-        <v>241</v>
-      </c>
-      <c r="C186" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D186" t="s">
-        <v>242</v>
-      </c>
-      <c r="E186" t="s">
-        <v>243</v>
-      </c>
-      <c r="F186" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" t="s">
-        <v>13</v>
-      </c>
-      <c r="H186" t="s">
+      <c r="B185" t="s">
+        <v>260</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="D185" t="s">
+        <v>261</v>
+      </c>
+      <c r="E185" t="s">
+        <v>262</v>
+      </c>
+      <c r="F185" t="s">
+        <v>263</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>140</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D187" t="s">
-        <v>242</v>
-      </c>
-      <c r="E187" t="s">
-        <v>243</v>
-      </c>
-      <c r="F187" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" t="s">
-        <v>13</v>
+      <c r="A187" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="C188" t="n">
-        <v>3.953</v>
+        <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="E188" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
@@ -3807,64 +3741,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
-      <c r="B189" t="s">
-        <v>141</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D189" t="s">
-        <v>242</v>
-      </c>
-      <c r="E189" t="s">
-        <v>243</v>
-      </c>
-      <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>244</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D190" t="s">
-        <v>242</v>
-      </c>
-      <c r="E190" t="s">
-        <v>243</v>
-      </c>
-      <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="s">
-        <v>13</v>
+      <c r="A190" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="C191" t="n">
-        <v>3.953</v>
+        <v>3.8</v>
       </c>
       <c r="D191" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="E191" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="F191" t="s">
         <v>13</v>
@@ -3878,128 +3771,128 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="C194" t="n">
-        <v>3.226</v>
+        <v>3.56</v>
       </c>
       <c r="D194" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E194" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="F194" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="G194" t="s">
         <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>3.0875</v>
       </c>
       <c r="D197" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="E197" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="H197" t="s">
-        <v>13</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C200" t="n">
-        <v>3.0875</v>
+        <v>3.828</v>
       </c>
       <c r="D200" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E200" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="F200" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G200" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="H200" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>259</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="B201" t="s">
+        <v>285</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.5075</v>
+      </c>
+      <c r="D201" t="s">
+        <v>286</v>
+      </c>
+      <c r="E201" t="s">
+        <v>287</v>
+      </c>
+      <c r="F201" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="B203" t="s">
-        <v>260</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.828</v>
-      </c>
-      <c r="D203" t="s">
-        <v>261</v>
-      </c>
-      <c r="E203" t="s">
-        <v>262</v>
-      </c>
-      <c r="F203" t="s">
-        <v>263</v>
-      </c>
-      <c r="G203" t="s">
-        <v>13</v>
-      </c>
-      <c r="H203" t="s">
-        <v>13</v>
+      <c r="A203" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="B204" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C204" t="n">
-        <v>3.5075</v>
+        <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="F204" t="s">
         <v>13</v>
@@ -4013,24 +3906,24 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="B207" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>3.677</v>
       </c>
       <c r="D207" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="G207" t="s">
         <v>13</v>
@@ -4041,24 +3934,24 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="B210" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C210" t="n">
-        <v>3.677</v>
+        <v>3.467</v>
       </c>
       <c r="D210" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E210" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="F210" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="G210" t="s">
         <v>13</v>
@@ -4069,24 +3962,24 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C213" t="n">
-        <v>3.467</v>
+        <v>3.5</v>
       </c>
       <c r="D213" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E213" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="F213" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="G213" t="s">
         <v>13</v>
@@ -4097,27 +3990,27 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="B216" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="C216" t="n">
-        <v>3.5</v>
+        <v>3.857</v>
       </c>
       <c r="D216" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="E216" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="F216" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="H216" t="s">
         <v>13</v>
@@ -4125,27 +4018,27 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="B219" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="C219" t="n">
-        <v>3.857</v>
+        <v>3.641</v>
       </c>
       <c r="D219" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="E219" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
+        <v>309</v>
       </c>
       <c r="G219" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="H219" t="s">
         <v>13</v>
@@ -4153,24 +4046,24 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="B222" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C222" t="n">
-        <v>3.641</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="E222" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="F222" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
         <v>13</v>
@@ -4181,21 +4074,21 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D225" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="E225" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="F225" t="s">
         <v>13</v>
@@ -4209,159 +4102,159 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="C228" t="n">
-        <v>3.5</v>
+        <v>3.492</v>
       </c>
       <c r="D228" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="E228" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="G228" t="s">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="H228" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="B229" t="s">
-        <v>293</v>
-      </c>
-      <c r="C229" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D229" t="s">
-        <v>292</v>
-      </c>
-      <c r="E229" t="s">
-        <v>292</v>
-      </c>
-      <c r="F229" t="s">
-        <v>13</v>
-      </c>
-      <c r="G229" t="s">
-        <v>13</v>
-      </c>
-      <c r="H229" t="s">
-        <v>13</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="B232" t="s">
-        <v>295</v>
-      </c>
-      <c r="C232" t="n">
-        <v>3.492</v>
-      </c>
-      <c r="D232" t="s">
-        <v>296</v>
-      </c>
-      <c r="E232" t="s">
-        <v>297</v>
-      </c>
-      <c r="F232" t="s">
-        <v>298</v>
-      </c>
-      <c r="G232" t="s">
-        <v>299</v>
-      </c>
-      <c r="H232" t="s">
-        <v>299</v>
+      <c r="B231" t="s">
+        <v>321</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="D231" t="s">
+        <v>322</v>
+      </c>
+      <c r="E231" t="s">
+        <v>323</v>
+      </c>
+      <c r="F231" t="s">
+        <v>126</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>301</v>
-      </c>
-      <c r="C235" t="n">
-        <v>3.368</v>
-      </c>
-      <c r="D235" t="s">
-        <v>302</v>
-      </c>
-      <c r="E235" t="s">
-        <v>303</v>
-      </c>
-      <c r="F235" t="s">
-        <v>123</v>
-      </c>
-      <c r="G235" t="s">
-        <v>13</v>
-      </c>
-      <c r="H235" t="s">
-        <v>13</v>
+      <c r="B234" t="s">
+        <v>325</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.561</v>
+      </c>
+      <c r="D234" t="s">
+        <v>326</v>
+      </c>
+      <c r="E234" t="s">
+        <v>327</v>
+      </c>
+      <c r="F234" t="s">
+        <v>140</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="B238" t="s">
-        <v>305</v>
-      </c>
-      <c r="C238" t="n">
-        <v>3.561</v>
-      </c>
-      <c r="D238" t="s">
-        <v>306</v>
-      </c>
-      <c r="E238" t="s">
-        <v>307</v>
-      </c>
-      <c r="F238" t="s">
-        <v>137</v>
-      </c>
-      <c r="G238" t="s">
-        <v>13</v>
-      </c>
-      <c r="H238" t="s">
-        <v>13</v>
+      <c r="B237" t="s">
+        <v>329</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3.152</v>
+      </c>
+      <c r="D237" t="s">
+        <v>330</v>
+      </c>
+      <c r="E237" t="s">
+        <v>331</v>
+      </c>
+      <c r="F237" t="s">
+        <v>332</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
+      <c r="H237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" t="s">
-        <v>308</v>
+      <c r="B240" t="s">
+        <v>334</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>41</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
+        <v>13</v>
+      </c>
+      <c r="G240" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="B241" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C241" t="n">
-        <v>3.152</v>
+        <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="E241" t="s">
-        <v>311</v>
+        <v>13</v>
       </c>
       <c r="F241" t="s">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="G241" t="s">
         <v>13</v>
@@ -4372,18 +4265,18 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="B244" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="C244" t="n">
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E244" t="s">
         <v>13</v>
@@ -4398,285 +4291,285 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
-      <c r="B245" t="s">
-        <v>315</v>
-      </c>
-      <c r="C245" t="n">
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>184</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="D247" t="s">
+        <v>339</v>
+      </c>
+      <c r="E247" t="s">
+        <v>339</v>
+      </c>
+      <c r="F247" t="s">
+        <v>340</v>
+      </c>
+      <c r="G247" t="s">
+        <v>233</v>
+      </c>
+      <c r="H247" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>343</v>
+      </c>
+      <c r="C250" t="n">
         <v>4</v>
       </c>
-      <c r="D245" t="s">
-        <v>37</v>
-      </c>
-      <c r="E245" t="s">
-        <v>13</v>
-      </c>
-      <c r="F245" t="s">
-        <v>13</v>
-      </c>
-      <c r="G245" t="s">
-        <v>13</v>
-      </c>
-      <c r="H245" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="B246" t="s">
-        <v>316</v>
-      </c>
-      <c r="C246" t="n">
-        <v>4</v>
-      </c>
-      <c r="D246" t="s">
-        <v>37</v>
-      </c>
-      <c r="E246" t="s">
-        <v>13</v>
-      </c>
-      <c r="F246" t="s">
-        <v>13</v>
-      </c>
-      <c r="G246" t="s">
-        <v>13</v>
-      </c>
-      <c r="H246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="B249" t="s">
-        <v>318</v>
-      </c>
-      <c r="C249" t="n">
-        <v>4</v>
-      </c>
-      <c r="D249" t="s">
-        <v>37</v>
-      </c>
-      <c r="E249" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
-        <v>13</v>
-      </c>
-      <c r="G249" t="s">
-        <v>13</v>
-      </c>
-      <c r="H249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>319</v>
+      <c r="D250" t="s">
+        <v>41</v>
+      </c>
+      <c r="E250" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="B252" t="s">
-        <v>183</v>
-      </c>
-      <c r="C252" t="n">
-        <v>3.047</v>
-      </c>
-      <c r="D252" t="s">
-        <v>320</v>
-      </c>
-      <c r="E252" t="s">
-        <v>320</v>
-      </c>
-      <c r="F252" t="s">
-        <v>321</v>
-      </c>
-      <c r="G252" t="s">
-        <v>243</v>
-      </c>
-      <c r="H252" t="s">
-        <v>322</v>
+      <c r="A252" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="B253" t="s">
+        <v>343</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>296</v>
+      </c>
+      <c r="E253" t="s">
+        <v>345</v>
+      </c>
+      <c r="F253" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="B255" t="s">
-        <v>324</v>
-      </c>
-      <c r="C255" t="n">
-        <v>4</v>
-      </c>
-      <c r="D255" t="s">
-        <v>37</v>
-      </c>
-      <c r="E255" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" t="s">
-        <v>13</v>
-      </c>
-      <c r="G255" t="s">
-        <v>13</v>
-      </c>
-      <c r="H255" t="s">
-        <v>13</v>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.3243</v>
+      </c>
+      <c r="D254" t="s">
+        <v>346</v>
+      </c>
+      <c r="E254" t="s">
+        <v>347</v>
+      </c>
+      <c r="F254" t="s">
+        <v>348</v>
+      </c>
+      <c r="G254" t="s">
+        <v>349</v>
+      </c>
+      <c r="H254" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="B258" t="s">
+      <c r="B257" t="s">
         <v>14</v>
       </c>
-      <c r="C258" t="n">
-        <v>2.3243</v>
-      </c>
-      <c r="D258" t="s">
-        <v>326</v>
-      </c>
-      <c r="E258" t="s">
-        <v>327</v>
-      </c>
-      <c r="F258" t="s">
-        <v>328</v>
-      </c>
-      <c r="G258" t="s">
-        <v>329</v>
-      </c>
-      <c r="H258" t="s">
-        <v>330</v>
+      <c r="C257" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D257" t="s">
+        <v>313</v>
+      </c>
+      <c r="E257" t="s">
+        <v>313</v>
+      </c>
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="B261" t="s">
-        <v>332</v>
-      </c>
-      <c r="C261" t="n">
+      <c r="B260" t="s">
+        <v>353</v>
+      </c>
+      <c r="C260" t="n">
         <v>2.454</v>
       </c>
-      <c r="D261" t="s">
-        <v>219</v>
-      </c>
-      <c r="E261" t="s">
-        <v>333</v>
-      </c>
-      <c r="F261" t="s">
-        <v>219</v>
-      </c>
-      <c r="G261" t="s">
-        <v>13</v>
-      </c>
-      <c r="H261" t="s">
-        <v>219</v>
+      <c r="D260" t="s">
+        <v>218</v>
+      </c>
+      <c r="E260" t="s">
+        <v>354</v>
+      </c>
+      <c r="F260" t="s">
+        <v>218</v>
+      </c>
+      <c r="G260" t="s">
+        <v>13</v>
+      </c>
+      <c r="H260" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" t="s">
-        <v>334</v>
+      <c r="B263" t="s">
+        <v>337</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="D263" t="s">
+        <v>136</v>
+      </c>
+      <c r="E263" t="s">
+        <v>356</v>
+      </c>
+      <c r="F263" t="s">
+        <v>357</v>
+      </c>
+      <c r="G263" t="s">
+        <v>358</v>
+      </c>
+      <c r="H263" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="B264" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C264" t="n">
-        <v>2.975</v>
+        <v>3.3</v>
       </c>
       <c r="D264" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="E264" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="F264" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="G264" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="H264" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
-      <c r="B265" t="s">
-        <v>324</v>
-      </c>
-      <c r="C265" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D265" t="s">
-        <v>338</v>
-      </c>
-      <c r="E265" t="s">
-        <v>339</v>
-      </c>
-      <c r="F265" t="s">
-        <v>13</v>
-      </c>
-      <c r="G265" t="s">
-        <v>13</v>
-      </c>
-      <c r="H265" t="s">
-        <v>13</v>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="B268" t="s">
+      <c r="B267" t="s">
         <v>27</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C267" t="n">
         <v>3.071</v>
       </c>
-      <c r="D268" t="s">
-        <v>341</v>
-      </c>
-      <c r="E268" t="s">
-        <v>342</v>
-      </c>
-      <c r="F268" t="s">
+      <c r="D267" t="s">
+        <v>362</v>
+      </c>
+      <c r="E267" t="s">
+        <v>363</v>
+      </c>
+      <c r="F267" t="s">
+        <v>364</v>
+      </c>
+      <c r="G267" t="s">
+        <v>365</v>
+      </c>
+      <c r="H267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="B270" t="s">
         <v>343</v>
       </c>
-      <c r="G268" t="s">
-        <v>344</v>
-      </c>
-      <c r="H268" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" t="s">
-        <v>345</v>
+      <c r="C270" t="n">
+        <v>4</v>
+      </c>
+      <c r="D270" t="s">
+        <v>41</v>
+      </c>
+      <c r="E270" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s">
+        <v>13</v>
+      </c>
+      <c r="G270" t="s">
+        <v>13</v>
+      </c>
+      <c r="H270" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="B271" t="s">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="C271" t="n">
         <v>4</v>
       </c>
       <c r="D271" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E271" t="s">
         <v>13</v>
@@ -4691,551 +4584,390 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
-      <c r="B272" t="s">
-        <v>183</v>
-      </c>
-      <c r="C272" t="n">
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="B274" t="s">
+        <v>337</v>
+      </c>
+      <c r="C274" t="n">
         <v>4</v>
       </c>
-      <c r="D272" t="s">
-        <v>37</v>
-      </c>
-      <c r="E272" t="s">
-        <v>13</v>
-      </c>
-      <c r="F272" t="s">
-        <v>13</v>
-      </c>
-      <c r="G272" t="s">
-        <v>13</v>
-      </c>
-      <c r="H272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="B275" t="s">
-        <v>318</v>
-      </c>
-      <c r="C275" t="n">
+      <c r="D274" t="s">
+        <v>41</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s">
+        <v>13</v>
+      </c>
+      <c r="G274" t="s">
+        <v>13</v>
+      </c>
+      <c r="H274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="B277" t="s">
+        <v>369</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="D277" t="s">
+        <v>301</v>
+      </c>
+      <c r="E277" t="s">
+        <v>370</v>
+      </c>
+      <c r="F277" t="s">
+        <v>21</v>
+      </c>
+      <c r="G277" t="s">
+        <v>13</v>
+      </c>
+      <c r="H277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="B280" t="s">
+        <v>372</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3</v>
+      </c>
+      <c r="D280" t="s">
+        <v>373</v>
+      </c>
+      <c r="E280" t="s">
+        <v>330</v>
+      </c>
+      <c r="F280" t="s">
+        <v>373</v>
+      </c>
+      <c r="G280" t="s">
+        <v>13</v>
+      </c>
+      <c r="H280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="B283" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="D283" t="s">
+        <v>363</v>
+      </c>
+      <c r="E283" t="s">
+        <v>131</v>
+      </c>
+      <c r="F283" t="s">
+        <v>375</v>
+      </c>
+      <c r="G283" t="s">
+        <v>13</v>
+      </c>
+      <c r="H283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="B286" t="s">
+        <v>353</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" t="s">
+        <v>41</v>
+      </c>
+      <c r="F286" t="s">
+        <v>13</v>
+      </c>
+      <c r="G286" t="s">
+        <v>13</v>
+      </c>
+      <c r="H286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="B289" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="D289" t="s">
+        <v>33</v>
+      </c>
+      <c r="E289" t="s">
+        <v>378</v>
+      </c>
+      <c r="F289" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289" t="s">
+        <v>379</v>
+      </c>
+      <c r="H289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="B292" t="s">
+        <v>381</v>
+      </c>
+      <c r="C292" t="n">
         <v>4</v>
       </c>
-      <c r="D275" t="s">
-        <v>37</v>
-      </c>
-      <c r="E275" t="s">
-        <v>13</v>
-      </c>
-      <c r="F275" t="s">
-        <v>13</v>
-      </c>
-      <c r="G275" t="s">
-        <v>13</v>
-      </c>
-      <c r="H275" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="B278" t="s">
-        <v>348</v>
-      </c>
-      <c r="C278" t="n">
-        <v>2.969</v>
-      </c>
-      <c r="D278" t="s">
-        <v>281</v>
-      </c>
-      <c r="E278" t="s">
-        <v>349</v>
-      </c>
-      <c r="F278" t="s">
-        <v>21</v>
-      </c>
-      <c r="G278" t="s">
-        <v>13</v>
-      </c>
-      <c r="H278" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="B281" t="s">
-        <v>351</v>
-      </c>
-      <c r="C281" t="n">
-        <v>3</v>
-      </c>
-      <c r="D281" t="s">
-        <v>352</v>
-      </c>
-      <c r="E281" t="s">
-        <v>310</v>
-      </c>
-      <c r="F281" t="s">
-        <v>352</v>
-      </c>
-      <c r="G281" t="s">
-        <v>13</v>
-      </c>
-      <c r="H281" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="B284" t="s">
-        <v>14</v>
-      </c>
-      <c r="C284" t="n">
-        <v>2.714</v>
-      </c>
-      <c r="D284" t="s">
-        <v>342</v>
-      </c>
-      <c r="E284" t="s">
-        <v>128</v>
-      </c>
-      <c r="F284" t="s">
-        <v>354</v>
-      </c>
-      <c r="G284" t="s">
-        <v>13</v>
-      </c>
-      <c r="H284" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="B287" t="s">
-        <v>332</v>
-      </c>
-      <c r="C287" t="n">
-        <v>3</v>
-      </c>
-      <c r="D287" t="s">
-        <v>13</v>
-      </c>
-      <c r="E287" t="s">
-        <v>37</v>
-      </c>
-      <c r="F287" t="s">
-        <v>13</v>
-      </c>
-      <c r="G287" t="s">
-        <v>13</v>
-      </c>
-      <c r="H287" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="B290" t="s">
-        <v>27</v>
-      </c>
-      <c r="C290" t="n">
-        <v>3.238</v>
-      </c>
-      <c r="D290" t="s">
-        <v>357</v>
-      </c>
-      <c r="E290" t="s">
-        <v>358</v>
-      </c>
-      <c r="F290" t="s">
-        <v>13</v>
-      </c>
-      <c r="G290" t="s">
-        <v>359</v>
-      </c>
-      <c r="H290" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="B291" t="s">
-        <v>103</v>
-      </c>
-      <c r="C291" t="n">
-        <v>3.238</v>
-      </c>
-      <c r="D291" t="s">
-        <v>357</v>
-      </c>
-      <c r="E291" t="s">
-        <v>358</v>
-      </c>
-      <c r="F291" t="s">
-        <v>13</v>
-      </c>
-      <c r="G291" t="s">
-        <v>359</v>
-      </c>
-      <c r="H291" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" t="s">
-        <v>360</v>
+      <c r="D292" t="s">
+        <v>41</v>
+      </c>
+      <c r="E292" t="s">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s">
+        <v>13</v>
+      </c>
+      <c r="G292" t="s">
+        <v>13</v>
+      </c>
+      <c r="H292" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:8">
-      <c r="B294" t="s">
-        <v>361</v>
-      </c>
-      <c r="C294" t="n">
+      <c r="A294" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="B295" t="s">
+        <v>383</v>
+      </c>
+      <c r="C295" t="n">
         <v>4</v>
       </c>
-      <c r="D294" t="s">
-        <v>37</v>
-      </c>
-      <c r="E294" t="s">
-        <v>13</v>
-      </c>
-      <c r="F294" t="s">
-        <v>13</v>
-      </c>
-      <c r="G294" t="s">
-        <v>13</v>
-      </c>
-      <c r="H294" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" t="s">
-        <v>362</v>
+      <c r="D295" t="s">
+        <v>41</v>
+      </c>
+      <c r="E295" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" t="s">
+        <v>13</v>
+      </c>
+      <c r="H295" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:8">
-      <c r="B297" t="s">
-        <v>363</v>
-      </c>
-      <c r="C297" t="n">
+      <c r="A297" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="B298" t="s">
+        <v>385</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="D298" t="s">
+        <v>386</v>
+      </c>
+      <c r="E298" t="s">
+        <v>145</v>
+      </c>
+      <c r="F298" t="s">
+        <v>13</v>
+      </c>
+      <c r="G298" t="s">
+        <v>13</v>
+      </c>
+      <c r="H298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="B299" t="s">
+        <v>387</v>
+      </c>
+      <c r="C299" t="n">
         <v>4</v>
       </c>
-      <c r="D297" t="s">
-        <v>37</v>
-      </c>
-      <c r="E297" t="s">
-        <v>13</v>
-      </c>
-      <c r="F297" t="s">
-        <v>13</v>
-      </c>
-      <c r="G297" t="s">
-        <v>13</v>
-      </c>
-      <c r="H297" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="B300" t="s">
-        <v>365</v>
-      </c>
-      <c r="C300" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D300" t="s">
-        <v>366</v>
-      </c>
-      <c r="E300" t="s">
-        <v>145</v>
-      </c>
-      <c r="F300" t="s">
-        <v>13</v>
-      </c>
-      <c r="G300" t="s">
-        <v>13</v>
-      </c>
-      <c r="H300" t="s">
+      <c r="D299" t="s">
+        <v>41</v>
+      </c>
+      <c r="E299" t="s">
+        <v>13</v>
+      </c>
+      <c r="F299" t="s">
+        <v>13</v>
+      </c>
+      <c r="G299" t="s">
+        <v>13</v>
+      </c>
+      <c r="H299" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="B301" t="s">
-        <v>367</v>
-      </c>
-      <c r="C301" t="n">
+      <c r="A301" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="B302" t="s">
+        <v>372</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="D302" t="s">
+        <v>389</v>
+      </c>
+      <c r="E302" t="s">
+        <v>390</v>
+      </c>
+      <c r="F302" t="s">
+        <v>391</v>
+      </c>
+      <c r="G302" t="s">
+        <v>392</v>
+      </c>
+      <c r="H302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="B305" t="s">
+        <v>394</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="D305" t="s">
+        <v>395</v>
+      </c>
+      <c r="E305" t="s">
+        <v>396</v>
+      </c>
+      <c r="F305" t="s">
+        <v>13</v>
+      </c>
+      <c r="G305" t="s">
+        <v>13</v>
+      </c>
+      <c r="H305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="B308" t="s">
+        <v>398</v>
+      </c>
+      <c r="C308" t="n">
+        <v>3.189</v>
+      </c>
+      <c r="D308" t="s">
+        <v>399</v>
+      </c>
+      <c r="E308" t="s">
+        <v>88</v>
+      </c>
+      <c r="F308" t="s">
+        <v>400</v>
+      </c>
+      <c r="G308" t="s">
+        <v>13</v>
+      </c>
+      <c r="H308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="B311" t="s">
+        <v>398</v>
+      </c>
+      <c r="C311" t="n">
         <v>4</v>
       </c>
-      <c r="D301" t="s">
-        <v>37</v>
-      </c>
-      <c r="E301" t="s">
-        <v>13</v>
-      </c>
-      <c r="F301" t="s">
-        <v>13</v>
-      </c>
-      <c r="G301" t="s">
-        <v>13</v>
-      </c>
-      <c r="H301" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="B304" t="s">
-        <v>351</v>
-      </c>
-      <c r="C304" t="n">
-        <v>3.226</v>
-      </c>
-      <c r="D304" t="s">
-        <v>369</v>
-      </c>
-      <c r="E304" t="s">
-        <v>370</v>
-      </c>
-      <c r="F304" t="s">
-        <v>371</v>
-      </c>
-      <c r="G304" t="s">
-        <v>372</v>
-      </c>
-      <c r="H304" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="B307" t="s">
-        <v>374</v>
-      </c>
-      <c r="C307" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="D307" t="s">
-        <v>375</v>
-      </c>
-      <c r="E307" t="s">
-        <v>376</v>
-      </c>
-      <c r="F307" t="s">
-        <v>13</v>
-      </c>
-      <c r="G307" t="s">
-        <v>13</v>
-      </c>
-      <c r="H307" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="B310" t="s">
-        <v>378</v>
-      </c>
-      <c r="C310" t="n">
-        <v>3.189</v>
-      </c>
-      <c r="D310" t="s">
-        <v>379</v>
-      </c>
-      <c r="E310" t="s">
-        <v>84</v>
-      </c>
-      <c r="F310" t="s">
-        <v>380</v>
-      </c>
-      <c r="G310" t="s">
-        <v>13</v>
-      </c>
-      <c r="H310" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="A312" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="B313" t="s">
-        <v>103</v>
-      </c>
-      <c r="C313" t="n">
-        <v>4</v>
-      </c>
-      <c r="D313" t="s">
-        <v>37</v>
-      </c>
-      <c r="E313" t="s">
-        <v>13</v>
-      </c>
-      <c r="F313" t="s">
-        <v>13</v>
-      </c>
-      <c r="G313" t="s">
-        <v>13</v>
-      </c>
-      <c r="H313" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>140</v>
-      </c>
-      <c r="C314" t="n">
-        <v>4</v>
-      </c>
-      <c r="D314" t="s">
-        <v>37</v>
-      </c>
-      <c r="E314" t="s">
-        <v>13</v>
-      </c>
-      <c r="F314" t="s">
-        <v>13</v>
-      </c>
-      <c r="G314" t="s">
-        <v>13</v>
-      </c>
-      <c r="H314" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="B315" t="s">
-        <v>378</v>
-      </c>
-      <c r="C315" t="n">
-        <v>4</v>
-      </c>
-      <c r="D315" t="s">
-        <v>37</v>
-      </c>
-      <c r="E315" t="s">
-        <v>13</v>
-      </c>
-      <c r="F315" t="s">
-        <v>13</v>
-      </c>
-      <c r="G315" t="s">
-        <v>13</v>
-      </c>
-      <c r="H315" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="B316" t="s">
-        <v>382</v>
-      </c>
-      <c r="C316" t="n">
-        <v>4</v>
-      </c>
-      <c r="D316" t="s">
-        <v>37</v>
-      </c>
-      <c r="E316" t="s">
-        <v>13</v>
-      </c>
-      <c r="F316" t="s">
-        <v>13</v>
-      </c>
-      <c r="G316" t="s">
-        <v>13</v>
-      </c>
-      <c r="H316" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="B317" t="s">
-        <v>147</v>
-      </c>
-      <c r="C317" t="n">
-        <v>4</v>
-      </c>
-      <c r="D317" t="s">
-        <v>37</v>
-      </c>
-      <c r="E317" t="s">
-        <v>13</v>
-      </c>
-      <c r="F317" t="s">
-        <v>13</v>
-      </c>
-      <c r="G317" t="s">
-        <v>13</v>
-      </c>
-      <c r="H317" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="B318" t="s">
-        <v>141</v>
-      </c>
-      <c r="C318" t="n">
-        <v>4</v>
-      </c>
-      <c r="D318" t="s">
-        <v>37</v>
-      </c>
-      <c r="E318" t="s">
-        <v>13</v>
-      </c>
-      <c r="F318" t="s">
-        <v>13</v>
-      </c>
-      <c r="G318" t="s">
-        <v>13</v>
-      </c>
-      <c r="H318" t="s">
+      <c r="D311" t="s">
+        <v>41</v>
+      </c>
+      <c r="E311" t="s">
+        <v>13</v>
+      </c>
+      <c r="F311" t="s">
+        <v>13</v>
+      </c>
+      <c r="G311" t="s">
+        <v>13</v>
+      </c>
+      <c r="H311" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 VM.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 VM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BIMS-101</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>0.87%</t>
+  </si>
+  <si>
     <t>HERMAN J</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>3.64%</t>
   </si>
   <si>
+    <t>0.90%</t>
+  </si>
+  <si>
     <t>BIMS-201</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>12.82%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>COTHRAN E</t>
   </si>
   <si>
@@ -136,6 +148,9 @@
     <t>2.22%</t>
   </si>
   <si>
+    <t>2.17%</t>
+  </si>
+  <si>
     <t>SEABURY C</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>20.00%</t>
   </si>
   <si>
+    <t>16.67%</t>
+  </si>
+  <si>
     <t>VIBS-204</t>
   </si>
   <si>
@@ -196,6 +214,9 @@
     <t>1.01%</t>
   </si>
   <si>
+    <t>1.00%</t>
+  </si>
+  <si>
     <t>VIBS-289</t>
   </si>
   <si>
@@ -211,6 +232,9 @@
     <t>7.32%</t>
   </si>
   <si>
+    <t>4.65%</t>
+  </si>
+  <si>
     <t>VIBS-305</t>
   </si>
   <si>
@@ -232,6 +256,9 @@
     <t>0.67%</t>
   </si>
   <si>
+    <t>1.97%</t>
+  </si>
+  <si>
     <t>VIBS-404</t>
   </si>
   <si>
@@ -244,12 +271,12 @@
     <t>PORTER W</t>
   </si>
   <si>
-    <t>16.67%</t>
-  </si>
-  <si>
     <t>83.33%</t>
   </si>
   <si>
+    <t>25.00%</t>
+  </si>
+  <si>
     <t>VIBS-420</t>
   </si>
   <si>
@@ -268,6 +295,9 @@
     <t>5.26%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>VIBS-489</t>
   </si>
   <si>
@@ -808,6 +838,9 @@
     <t>19.35%</t>
   </si>
   <si>
+    <t>3.13%</t>
+  </si>
+  <si>
     <t>VTMI-629</t>
   </si>
   <si>
@@ -838,6 +871,9 @@
     <t>1.42%</t>
   </si>
   <si>
+    <t>1.40%</t>
+  </si>
+  <si>
     <t>VTPB-334</t>
   </si>
   <si>
@@ -919,9 +955,6 @@
     <t>62.50%</t>
   </si>
   <si>
-    <t>25.00%</t>
-  </si>
-  <si>
     <t>12.50%</t>
   </si>
   <si>
@@ -1042,6 +1075,9 @@
     <t>1.56%</t>
   </si>
   <si>
+    <t>4.48%</t>
+  </si>
+  <si>
     <t>VTPP-401</t>
   </si>
   <si>
@@ -1067,6 +1103,9 @@
   </si>
   <si>
     <t>3.42%</t>
+  </si>
+  <si>
+    <t>4.58%</t>
   </si>
   <si>
     <t>VTPP-427</t>
@@ -1257,12 +1296,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1556,15 +1594,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H311"/>
+  <dimension ref="A1:I311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1589,3386 +1627,3770 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.8605</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3.9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>3.719</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>3.83</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
         <v>3.873</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
         <v>3.41</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
         <v>3.289</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>3.174</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>3.885</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>3.8</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
         <v>3.343</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C29" t="n">
         <v>3.634</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C32" t="n">
         <v>3.302</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C38" t="n">
         <v>3.167</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C44" t="n">
         <v>3.176</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C48" t="n">
         <v>3.583</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C51" t="n">
         <v>3.522</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C60" t="n">
         <v>3.917</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C63" t="n">
         <v>3.923</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C72" t="n">
         <v>3.906</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C81" t="n">
         <v>3.889</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C84" t="n">
         <v>3.688</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C93" t="n">
         <v>3.293</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E93" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C96" t="n">
         <v>3.09</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E96" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F96" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C99" t="n">
         <v>3.737</v>
       </c>
       <c r="D99" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E99" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C102" t="n">
         <v>3.583</v>
       </c>
       <c r="D102" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E102" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C106" t="n">
         <v>3.471</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E106" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F106" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C109" t="n">
         <v>3.761</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C112" t="n">
         <v>3.016</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E112" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F112" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C115" t="n">
         <v>3.222</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F115" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G115" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C118" t="n">
         <v>3.517</v>
       </c>
       <c r="D118" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E118" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F118" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G118" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C122" t="n">
         <v>3.438</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E122" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C126" t="n">
         <v>3.96</v>
       </c>
       <c r="D126" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E126" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C135" t="n">
         <v>3.97</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E135" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C138" t="n">
         <v>2.664</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E138" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F138" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G138" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C141" t="n">
         <v>3.561</v>
       </c>
       <c r="D141" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E141" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C144" t="n">
         <v>3.152</v>
       </c>
       <c r="D144" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E144" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F144" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C147" t="n">
         <v>2.954</v>
       </c>
       <c r="D147" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E147" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F147" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G147" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H147" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C150" t="n">
         <v>3.588</v>
       </c>
       <c r="D150" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E150" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F150" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G150" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C153" t="n">
         <v>3.992</v>
       </c>
       <c r="D153" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E153" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C156" t="n">
         <v>3.818</v>
       </c>
       <c r="D156" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E156" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C162" t="n">
         <v>3.65</v>
       </c>
       <c r="D162" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E162" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C164" t="n">
         <v>3.9272</v>
       </c>
       <c r="D164" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E164" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C165" t="n">
         <v>3.46</v>
       </c>
       <c r="D165" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E165" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C166" t="n">
         <v>3.9675</v>
       </c>
       <c r="D166" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E166" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C167" t="n">
         <v>3.219</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E167" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F167" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C168" t="n">
         <v>3.873</v>
       </c>
       <c r="D168" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E168" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C170" t="n">
         <v>3.718</v>
       </c>
       <c r="D170" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E170" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C175" t="n">
         <v>3.9665</v>
       </c>
       <c r="D175" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E175" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C176" t="n">
         <v>3.854</v>
       </c>
       <c r="D176" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E176" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C179" t="n">
         <v>3.953</v>
       </c>
       <c r="D179" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E179" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C182" t="n">
         <v>3.267</v>
       </c>
       <c r="D182" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E182" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F182" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G182" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C185" t="n">
         <v>3.226</v>
       </c>
       <c r="D185" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E185" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F185" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C191" t="n">
         <v>3.8</v>
       </c>
       <c r="D191" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E191" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C194" t="n">
         <v>3.56</v>
       </c>
       <c r="D194" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E194" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F194" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I194" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C197" t="n">
         <v>3.0875</v>
       </c>
       <c r="D197" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E197" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F197" t="s">
+        <v>290</v>
+      </c>
+      <c r="G197" t="s">
+        <v>291</v>
+      </c>
+      <c r="H197" t="s">
+        <v>292</v>
+      </c>
+      <c r="I197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="B200" t="s">
         <v>278</v>
-      </c>
-      <c r="G197" t="s">
-        <v>279</v>
-      </c>
-      <c r="H197" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>267</v>
       </c>
       <c r="C200" t="n">
         <v>3.828</v>
       </c>
       <c r="D200" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E200" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F200" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C201" t="n">
         <v>3.5075</v>
       </c>
       <c r="D201" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E201" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C204" t="n">
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C207" t="n">
         <v>3.677</v>
       </c>
       <c r="D207" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E207" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F207" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C210" t="n">
         <v>3.467</v>
       </c>
       <c r="D210" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E210" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F210" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="G210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C213" t="n">
         <v>3.5</v>
       </c>
       <c r="D213" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E213" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="F213" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C216" t="n">
         <v>3.857</v>
       </c>
       <c r="D216" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E216" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H216" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C219" t="n">
         <v>3.641</v>
       </c>
       <c r="D219" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E219" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="F219" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="G219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C222" t="n">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C225" t="n">
         <v>3.5</v>
       </c>
       <c r="D225" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E225" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H225" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C228" t="n">
         <v>3.492</v>
       </c>
       <c r="D228" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E228" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F228" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G228" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="H228" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="I228" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C231" t="n">
         <v>3.368</v>
       </c>
       <c r="D231" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E231" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="F231" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C234" t="n">
         <v>3.561</v>
       </c>
       <c r="D234" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E234" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F234" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G234" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C237" t="n">
         <v>3.152</v>
       </c>
       <c r="D237" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E237" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F237" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="G237" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C240" t="n">
         <v>4</v>
       </c>
       <c r="D240" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H240" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C241" t="n">
         <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H241" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C244" t="n">
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H244" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C247" t="n">
         <v>3.047</v>
       </c>
       <c r="D247" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E247" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F247" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G247" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H247" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>352</v>
+      </c>
+      <c r="I247" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C250" t="n">
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C253" t="n">
         <v>3.6</v>
       </c>
       <c r="D253" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E253" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F253" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G253" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H253" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C254" t="n">
         <v>2.3243</v>
       </c>
       <c r="D254" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E254" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F254" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G254" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H254" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>362</v>
+      </c>
+      <c r="I254" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C257" t="n">
         <v>3.5</v>
       </c>
       <c r="D257" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E257" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F257" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H257" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C260" t="n">
         <v>2.454</v>
       </c>
       <c r="D260" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E260" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F260" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G260" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="I260" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C263" t="n">
         <v>2.975</v>
       </c>
       <c r="D263" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E263" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F263" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G263" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H263" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I263" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C264" t="n">
         <v>3.3</v>
       </c>
       <c r="D264" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="E264" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F264" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G264" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I264" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C267" t="n">
         <v>3.071</v>
       </c>
       <c r="D267" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E267" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F267" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G267" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H267" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I267" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C270" t="n">
         <v>4</v>
       </c>
       <c r="D270" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E270" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G270" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H270" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I270" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="B271" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C271" t="n">
         <v>4</v>
       </c>
       <c r="D271" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E271" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G271" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H271" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I271" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="B274" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C274" t="n">
         <v>4</v>
       </c>
       <c r="D274" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H274" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I274" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="B277" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C277" t="n">
         <v>2.969</v>
       </c>
       <c r="D277" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="E277" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F277" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H277" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I277" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="B280" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C280" t="n">
         <v>3</v>
       </c>
       <c r="D280" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="E280" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F280" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G280" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H280" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="B283" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C283" t="n">
         <v>2.714</v>
       </c>
       <c r="D283" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="E283" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F283" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G283" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H283" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I283" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="B286" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C286" t="n">
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E286" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H286" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I286" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="B289" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C289" t="n">
         <v>3.238</v>
       </c>
       <c r="D289" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E289" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F289" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G289" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H289" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I289" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="B292" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C292" t="n">
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H292" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I292" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="B295" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C295" t="n">
         <v>4</v>
       </c>
       <c r="D295" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E295" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G295" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H295" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I295" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C298" t="n">
         <v>3.588</v>
       </c>
       <c r="D298" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E298" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H298" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I298" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="C299" t="n">
         <v>4</v>
       </c>
       <c r="D299" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E299" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G299" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I299" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="B302" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C302" t="n">
         <v>3.226</v>
       </c>
       <c r="D302" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="E302" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F302" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="G302" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="H302" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I302" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="B305" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C305" t="n">
         <v>3.894</v>
       </c>
       <c r="D305" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E305" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F305" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G305" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H305" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I305" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="B308" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C308" t="n">
         <v>3.189</v>
       </c>
       <c r="D308" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="E308" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F308" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="G308" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H308" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I308" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="B311" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C311" t="n">
         <v>4</v>
       </c>
       <c r="D311" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E311" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G311" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H311" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I311" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
